--- a/Program/Data/result2.xlsx
+++ b/Program/Data/result2.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179.0159611575789</v>
+        <v>178.9081274110486</v>
       </c>
       <c r="C2" t="n">
-        <v>135.5590552142542</v>
+        <v>94.18754448601662</v>
       </c>
       <c r="D2" t="n">
-        <v>17795.8031213954</v>
+        <v>17794.70856133902</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07208729356432259</v>
+        <v>0.1008499470073514</v>
       </c>
       <c r="F2" t="n">
         <v>1800</v>
       </c>
       <c r="G2" t="n">
-        <v>17317.01161718884</v>
+        <v>17524.13239680559</v>
       </c>
       <c r="H2" t="n">
-        <v>8.296004869355425</v>
+        <v>5.257782419056156</v>
       </c>
       <c r="I2" t="n">
-        <v>1738.855134355133</v>
+        <v>1759.547447406011</v>
       </c>
       <c r="J2" t="n">
-        <v>4.600000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.03652435181897</v>
+        <v>260.83057270477</v>
       </c>
       <c r="C3" t="n">
-        <v>125.7580090802163</v>
+        <v>116.874008128241</v>
       </c>
       <c r="D3" t="n">
-        <v>14389.46336427789</v>
+        <v>11905.96822733652</v>
       </c>
       <c r="E3" t="n">
-        <v>6776.04311809196</v>
+        <v>817.4609455554013</v>
       </c>
       <c r="F3" t="n">
         <v>1400</v>
       </c>
       <c r="G3" t="n">
-        <v>14759.40652949858</v>
+        <v>11782.90194417922</v>
       </c>
       <c r="H3" t="n">
-        <v>7608.37661907906</v>
+        <v>55.04932452775074</v>
       </c>
       <c r="I3" t="n">
-        <v>1142.952794306577</v>
+        <v>1186.051096722547</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.094946074171</v>
+        <v>90.74763830364483</v>
       </c>
       <c r="C4" t="n">
-        <v>139.2903545191533</v>
+        <v>125.0294433845477</v>
       </c>
       <c r="D4" t="n">
-        <v>4604.863371259365</v>
+        <v>5966.821071993837</v>
       </c>
       <c r="E4" t="n">
-        <v>-775.5257908513445</v>
+        <v>-457.4541754049314</v>
       </c>
       <c r="F4" t="n">
         <v>700</v>
       </c>
       <c r="G4" t="n">
-        <v>4038.467389359831</v>
+        <v>5959.597494589882</v>
       </c>
       <c r="H4" t="n">
-        <v>127.5637187676963</v>
+        <v>96.09826497689812</v>
       </c>
       <c r="I4" t="n">
-        <v>413.0041014232113</v>
+        <v>603.9354896752417</v>
       </c>
       <c r="J4" t="n">
-        <v>5.600000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>10.2</v>
+        <v>13.6</v>
       </c>
     </row>
   </sheetData>
